--- a/yousei.xlsx
+++ b/yousei.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LB18Z0425\Joho\高度情報化班\A_★その他新規案件等\03_新型コロナウィルス県ホームページ\まいにちの更新作業\0329\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LB18Z0425\Joho\高度情報化班\A_★その他新規案件等\03_新型コロナウィルス県ホームページ\まいにちの更新作業\0330\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="yousei" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">yousei!$A$1:$I$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">yousei!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>退院（累計）</t>
     <rPh sb="0" eb="2">
@@ -467,13 +467,13 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27:F27"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1117,6 +1117,35 @@
         <v>17</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>43920</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2462</v>
+      </c>
+      <c r="D22" s="1">
+        <v>137</v>
+      </c>
+      <c r="E22" s="1">
+        <v>109</v>
+      </c>
+      <c r="F22" s="1">
+        <v>104</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/yousei.xlsx
+++ b/yousei.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="yousei" sheetId="2" r:id="rId1"/>
@@ -470,21 +470,21 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="9" width="20.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="9" width="20.125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>43900</v>
       </c>
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>43901</v>
       </c>
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>43902</v>
       </c>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>43903</v>
       </c>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>43904</v>
       </c>
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>43905</v>
       </c>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>43906</v>
       </c>
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>43907</v>
       </c>
@@ -761,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>43908</v>
       </c>
@@ -792,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>43909</v>
       </c>
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>43910</v>
       </c>
@@ -854,7 +854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>43911</v>
       </c>
@@ -885,7 +885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>43912</v>
       </c>
@@ -914,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>43913</v>
       </c>
@@ -943,7 +943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>43914</v>
       </c>
@@ -972,7 +972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>43915</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>43916</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>43917</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>43918</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>43919</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>43920</v>
       </c>
@@ -1131,10 +1131,10 @@
         <v>137</v>
       </c>
       <c r="E22" s="1">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="F22" s="1">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="G22" s="1">
         <v>5</v>
@@ -1143,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
